--- a/daily_report.xlsx
+++ b/daily_report.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test_2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="for_testing_bot" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="for_testing_bot" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,7 +425,7 @@
     <col width="9" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -467,21 +467,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>!</t>
+          <t>АзимбеК</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Azimbek_hakimov</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -489,67 +487,29 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>АзимбеК</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Azimbek_hakimov</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3"/>
+    <row r="4">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>📉 Bottom 5</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>🔢 Sanoq</t>
+        </is>
+      </c>
+    </row>
     <row r="5">
       <c r="G5" t="inlineStr">
         <is>
-          <t>📉 Bottom 5</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>🔢 Sanoq</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" t="inlineStr">
-        <is>
           <t>АзимбеК</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>!</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,10 +532,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="1" max="1"/>
     <col width="17" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="9" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
     <col width="4" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
@@ -626,12 +586,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>100.00%</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -639,105 +597,29 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Temurbek</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>JackerJakk</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Temurbek</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3"/>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Fayoz</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WFayoz</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00%</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fayoz</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="G6" t="inlineStr">
-        <is>
           <t>📉 Bottom 5</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>🔢 Sanoq</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="G7" t="inlineStr">
+    <row r="5">
+      <c r="G5" t="inlineStr">
         <is>
           <t>АзимбеК</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Temurbek</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Fayoz</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
+      <c r="H5" t="n">
         <v>0</v>
       </c>
     </row>
